--- a/Openpyxl Tutorial/balances.xlsx
+++ b/Openpyxl Tutorial/balances.xlsx
@@ -1,13 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yoursheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="New Title" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thesheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mysheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yoursheet Copy" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +48,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,6 +349,86 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>hello, world</t>
+        </is>
+      </c>
+    </row>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="001072BA"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -353,6 +437,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>